--- a/src/test/resources/af-tvplays.xlsx
+++ b/src/test/resources/af-tvplays.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>*节目序号（一个节目一个序号不能重复）</t>
   </si>
@@ -44,18 +44,6 @@
     <t>*学段（幼儿、小学、初中、高中、其它）</t>
   </si>
   <si>
-    <t>年级</t>
-  </si>
-  <si>
-    <t>科目</t>
-  </si>
-  <si>
-    <t>教材版本</t>
-  </si>
-  <si>
-    <t>标签(多个标签之间用&amp;隔开)</t>
-  </si>
-  <si>
     <t>讲师(多个讲师之间用&amp;隔开)</t>
   </si>
   <si>
@@ -75,18 +63,6 @@
   </si>
   <si>
     <t>*3.URL</t>
-  </si>
-  <si>
-    <t>4.剧集描述</t>
-  </si>
-  <si>
-    <t>*4.URL</t>
-  </si>
-  <si>
-    <t>5.剧集描述</t>
-  </si>
-  <si>
-    <t>*5.URL</t>
   </si>
   <si>
     <t>大风车</t>
@@ -123,27 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏</t>
-    <rPh sb="0" eb="1">
-      <t>yb'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏&amp;语言</t>
-    <rPh sb="0" eb="1">
-      <t>yb'xi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yu'yj</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>何老师&amp;李老师</t>
     <rPh sb="0" eb="1">
       <t>he'lk'ui</t>
@@ -183,14 +138,6 @@
   </si>
   <si>
     <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,20 +520,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="mySheet" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,85 +569,40 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/af-tvplays.xlsx
+++ b/src/test/resources/af-tvplays.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>*节目序号（一个节目一个序号不能重复）</t>
   </si>
@@ -138,6 +138,17 @@
   </si>
   <si>
     <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小风车</t>
+    <rPh sb="0" eb="1">
+      <t>xc</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="mySheet" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -605,6 +616,44 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/af-tvplays.xlsx
+++ b/src/test/resources/af-tvplays.xlsx
@@ -65,13 +65,6 @@
     <t>*3.URL</t>
   </si>
   <si>
-    <t>大风车</t>
-    <rPh sb="0" eb="1">
-      <t>da'fg'i</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>儿童综艺</t>
     <rPh sb="0" eb="1">
       <t>or'ts</t>
@@ -149,6 +142,10 @@
   </si>
   <si>
     <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +531,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -586,34 +583,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -621,37 +618,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
